--- a/Results/Designed_PV/New Microsoft Excel Worksheet.xlsx
+++ b/Results/Designed_PV/New Microsoft Excel Worksheet.xlsx
@@ -1,16 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26626"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="26731"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\Smart\Downloads\CityLearn-EVModel-Parisa-develop-ev (2)\CityLearn-EVModel-Parisa-develop-ev\ev_test_data\Results\Designed_PV\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{9ECCB4F6-BBD3-4AE7-AA9C-68D2DA6D9A30}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{14F81D5F-333F-4101-99F6-D7ECD8BBBA40}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9024" activeTab="1" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
+    <workbookView xWindow="5760" yWindow="0" windowWidth="17280" windowHeight="9024" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="RBC" sheetId="1" r:id="rId1"/>
@@ -26,7 +26,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="170" uniqueCount="121">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="340" uniqueCount="181">
   <si>
     <t>index,cost_function,value,name,level</t>
   </si>
@@ -389,6 +389,186 @@
   </si>
   <si>
     <t>77,cost_total,1.0049640380637226,Building_7,building</t>
+  </si>
+  <si>
+    <t>0,annual_peak_average,1.0225462168370452,District,district</t>
+  </si>
+  <si>
+    <t>1,carbon_emissions_total,0.9896199583965757,District,district</t>
+  </si>
+  <si>
+    <t>2,cost_total,0.9730746480409893,District,district</t>
+  </si>
+  <si>
+    <t>3,daily_peak_average,0.9750760548170735,District,district</t>
+  </si>
+  <si>
+    <t>10,electricity_consumption_total,0.9902468471534016,District,district</t>
+  </si>
+  <si>
+    <t>11,one_minus_load_factor_average,0.9993568194210539,District,district</t>
+  </si>
+  <si>
+    <t>12,ramping_average,1.0352947876581025,District,district</t>
+  </si>
+  <si>
+    <t>13,zero_net_energy,1.017891014316267,District,district</t>
+  </si>
+  <si>
+    <t>14,electricity_consumption_total,0.9901975359355638,Building_1,building</t>
+  </si>
+  <si>
+    <t>15,zero_net_energy,0.9901593173009992,Building_1,building</t>
+  </si>
+  <si>
+    <t>16,carbon_emissions_total,0.9904450339622771,Building_1,building</t>
+  </si>
+  <si>
+    <t>17,cost_total,0.9764309988224238,Building_1,building</t>
+  </si>
+  <si>
+    <t>24,electricity_consumption_total,1.0159514136752927,Building_2,building</t>
+  </si>
+  <si>
+    <t>25,zero_net_energy,1.0762916765250699,Building_2,building</t>
+  </si>
+  <si>
+    <t>26,carbon_emissions_total,1.010381578069966,Building_2,building</t>
+  </si>
+  <si>
+    <t>27,cost_total,0.9671164085689071,Building_2,building</t>
+  </si>
+  <si>
+    <t>34,electricity_consumption_total,0.9881763716737803,Building_3,building</t>
+  </si>
+  <si>
+    <t>35,zero_net_energy,0.9876360188598687,Building_3,building</t>
+  </si>
+  <si>
+    <t>36,carbon_emissions_total,0.9880661825301417,Building_3,building</t>
+  </si>
+  <si>
+    <t>37,cost_total,0.9800146342167446,Building_3,building</t>
+  </si>
+  <si>
+    <t>44,electricity_consumption_total,0.9550182077766391,Building_4,building</t>
+  </si>
+  <si>
+    <t>45,zero_net_energy,0.9536076758112072,Building_4,building</t>
+  </si>
+  <si>
+    <t>46,carbon_emissions_total,0.9550363782428639,Building_4,building</t>
+  </si>
+  <si>
+    <t>47,cost_total,0.9251458273577383,Building_4,building</t>
+  </si>
+  <si>
+    <t>54,electricity_consumption_total,0.9897840839992469,Building_5,building</t>
+  </si>
+  <si>
+    <t>55,zero_net_energy,1.0093241998479903,Building_5,building</t>
+  </si>
+  <si>
+    <t>56,carbon_emissions_total,0.9916812076643354,Building_5,building</t>
+  </si>
+  <si>
+    <t>57,cost_total,0.9999677969843935,Building_5,building</t>
+  </si>
+  <si>
+    <t>64,electricity_consumption_total,1.0070836083024075,Building_6,building</t>
+  </si>
+  <si>
+    <t>65,zero_net_energy,1.124362931544097,Building_6,building</t>
+  </si>
+  <si>
+    <t>66,carbon_emissions_total,1.0069201478631857,Building_6,building</t>
+  </si>
+  <si>
+    <t>67,cost_total,0.988186315415127,Building_6,building</t>
+  </si>
+  <si>
+    <t>74,electricity_consumption_total,0.9855167087108808,Building_7,building</t>
+  </si>
+  <si>
+    <t>75,zero_net_energy,0.9838552803246365,Building_7,building</t>
+  </si>
+  <si>
+    <t>76,carbon_emissions_total,0.9848091804432597,Building_7,building</t>
+  </si>
+  <si>
+    <t>77,cost_total,0.9746605549215905,Building_7,building</t>
+  </si>
+  <si>
+    <t>0,annual_peak_average,1.0170514138711142,District,district</t>
+  </si>
+  <si>
+    <t>1,carbon_emissions_total,1.0391673775028887,District,district</t>
+  </si>
+  <si>
+    <t>2,cost_total,1.0799113325482173,District,district</t>
+  </si>
+  <si>
+    <t>3,daily_peak_average,1.1915732467305769,District,district</t>
+  </si>
+  <si>
+    <t>10,electricity_consumption_total,1.0502329253124423,District,district</t>
+  </si>
+  <si>
+    <t>11,one_minus_load_factor_average,1.047810716376073,District,district</t>
+  </si>
+  <si>
+    <t>12,ramping_average,1.2391569610687094,District,district</t>
+  </si>
+  <si>
+    <t>13,zero_net_energy,0.9297695790655878,District,district</t>
+  </si>
+  <si>
+    <t>14,electricity_consumption_total,1.0087795983198464,Building_1,building</t>
+  </si>
+  <si>
+    <t>15,zero_net_energy,1.0083391640999853,Building_1,building</t>
+  </si>
+  <si>
+    <t>16,carbon_emissions_total,1.0015138447171181,Building_1,building</t>
+  </si>
+  <si>
+    <t>17,cost_total,1.0045088571331087,Building_1,building</t>
+  </si>
+  <si>
+    <t>34,electricity_consumption_total,1.0130677254581903,Building_3,building</t>
+  </si>
+  <si>
+    <t>35,zero_net_energy,1.0091071230542312,Building_3,building</t>
+  </si>
+  <si>
+    <t>36,carbon_emissions_total,1.0042321014027809,Building_3,building</t>
+  </si>
+  <si>
+    <t>37,cost_total,1.011173157216385,Building_3,building</t>
+  </si>
+  <si>
+    <t>54,electricity_consumption_total,1.0308414350574138,Building_5,building</t>
+  </si>
+  <si>
+    <t>55,zero_net_energy,1.014743818716653,Building_5,building</t>
+  </si>
+  <si>
+    <t>56,carbon_emissions_total,1.021345434633939,Building_5,building</t>
+  </si>
+  <si>
+    <t>57,cost_total,1.0417135888531277,Building_5,building</t>
+  </si>
+  <si>
+    <t>74,electricity_consumption_total,1.0214295326036158,Building_7,building</t>
+  </si>
+  <si>
+    <t>75,zero_net_energy,1.0133236346441419,Building_7,building</t>
+  </si>
+  <si>
+    <t>76,carbon_emissions_total,1.0090193352501666,Building_7,building</t>
+  </si>
+  <si>
+    <t>77,cost_total,1.0272415403862414,Building_7,building</t>
   </si>
 </sst>
 </file>
@@ -706,436 +886,694 @@
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection sqref="A1:A85"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="B1" sqref="B1:B85"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="62.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>1</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>157</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>2</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>158</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>3</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>159</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>4</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>160</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>11</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>161</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>12</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>162</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>13</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>163</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>14</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>164</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>165</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>16</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>166</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>17</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>167</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>18</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>168</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>25</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>25</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>26</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>27</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>28</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>35</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>169</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>36</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>170</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>37</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>171</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>38</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>172</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>45</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>45</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>46</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>46</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>47</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>47</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>48</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>48</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>55</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>173</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>56</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>174</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>57</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>175</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>58</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>176</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>65</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>65</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>66</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>66</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>67</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>67</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>68</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>68</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>75</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>177</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>76</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>178</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>77</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>179</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>78</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>180</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
@@ -1146,436 +1584,694 @@
 
 <file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{98FD35FB-7CF3-4648-9CB3-162C214D518E}">
-  <dimension ref="A1:A85"/>
+  <dimension ref="A1:B85"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection sqref="A1:A85"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="B5" sqref="B5"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
+  <cols>
+    <col min="1" max="2" width="62.77734375" bestFit="1" customWidth="1"/>
+  </cols>
   <sheetData>
-    <row r="1" spans="1:1" x14ac:dyDescent="0.3">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A1" t="s">
         <v>0</v>
       </c>
-    </row>
-    <row r="2" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B1" t="s">
+        <v>0</v>
+      </c>
+    </row>
+    <row r="2" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A2" t="s">
         <v>85</v>
       </c>
-    </row>
-    <row r="3" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B2" t="s">
+        <v>121</v>
+      </c>
+    </row>
+    <row r="3" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A3" t="s">
         <v>86</v>
       </c>
-    </row>
-    <row r="4" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B3" t="s">
+        <v>122</v>
+      </c>
+    </row>
+    <row r="4" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A4" t="s">
         <v>87</v>
       </c>
-    </row>
-    <row r="5" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B4" t="s">
+        <v>123</v>
+      </c>
+    </row>
+    <row r="5" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A5" t="s">
         <v>88</v>
       </c>
-    </row>
-    <row r="6" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B5" t="s">
+        <v>124</v>
+      </c>
+    </row>
+    <row r="6" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A6" t="s">
         <v>5</v>
       </c>
-    </row>
-    <row r="7" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B6" t="s">
+        <v>5</v>
+      </c>
+    </row>
+    <row r="7" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A7" t="s">
         <v>6</v>
       </c>
-    </row>
-    <row r="8" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B7" t="s">
+        <v>6</v>
+      </c>
+    </row>
+    <row r="8" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A8" t="s">
         <v>7</v>
       </c>
-    </row>
-    <row r="9" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B8" t="s">
+        <v>7</v>
+      </c>
+    </row>
+    <row r="9" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A9" t="s">
         <v>8</v>
       </c>
-    </row>
-    <row r="10" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B9" t="s">
+        <v>8</v>
+      </c>
+    </row>
+    <row r="10" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A10" t="s">
         <v>9</v>
       </c>
-    </row>
-    <row r="11" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B10" t="s">
+        <v>9</v>
+      </c>
+    </row>
+    <row r="11" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A11" t="s">
         <v>10</v>
       </c>
-    </row>
-    <row r="12" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B11" t="s">
+        <v>10</v>
+      </c>
+    </row>
+    <row r="12" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A12" t="s">
         <v>89</v>
       </c>
-    </row>
-    <row r="13" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B12" t="s">
+        <v>125</v>
+      </c>
+    </row>
+    <row r="13" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A13" t="s">
         <v>90</v>
       </c>
-    </row>
-    <row r="14" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B13" t="s">
+        <v>126</v>
+      </c>
+    </row>
+    <row r="14" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A14" t="s">
         <v>91</v>
       </c>
-    </row>
-    <row r="15" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B14" t="s">
+        <v>127</v>
+      </c>
+    </row>
+    <row r="15" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A15" t="s">
         <v>92</v>
       </c>
-    </row>
-    <row r="16" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B15" t="s">
+        <v>128</v>
+      </c>
+    </row>
+    <row r="16" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A16" t="s">
         <v>93</v>
       </c>
-    </row>
-    <row r="17" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B16" t="s">
+        <v>129</v>
+      </c>
+    </row>
+    <row r="17" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A17" t="s">
         <v>94</v>
       </c>
-    </row>
-    <row r="18" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B17" t="s">
+        <v>130</v>
+      </c>
+    </row>
+    <row r="18" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A18" t="s">
         <v>95</v>
       </c>
-    </row>
-    <row r="19" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B18" t="s">
+        <v>131</v>
+      </c>
+    </row>
+    <row r="19" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A19" t="s">
         <v>96</v>
       </c>
-    </row>
-    <row r="20" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B19" t="s">
+        <v>132</v>
+      </c>
+    </row>
+    <row r="20" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A20" t="s">
         <v>19</v>
       </c>
-    </row>
-    <row r="21" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B20" t="s">
+        <v>19</v>
+      </c>
+    </row>
+    <row r="21" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A21" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="22" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B21" t="s">
+        <v>20</v>
+      </c>
+    </row>
+    <row r="22" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A22" t="s">
         <v>21</v>
       </c>
-    </row>
-    <row r="23" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B22" t="s">
+        <v>21</v>
+      </c>
+    </row>
+    <row r="23" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A23" t="s">
         <v>22</v>
       </c>
-    </row>
-    <row r="24" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B23" t="s">
+        <v>22</v>
+      </c>
+    </row>
+    <row r="24" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A24" t="s">
         <v>23</v>
       </c>
-    </row>
-    <row r="25" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B24" t="s">
+        <v>23</v>
+      </c>
+    </row>
+    <row r="25" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A25" t="s">
         <v>24</v>
       </c>
-    </row>
-    <row r="26" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B25" t="s">
+        <v>24</v>
+      </c>
+    </row>
+    <row r="26" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A26" t="s">
         <v>97</v>
       </c>
-    </row>
-    <row r="27" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B26" t="s">
+        <v>133</v>
+      </c>
+    </row>
+    <row r="27" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A27" t="s">
         <v>98</v>
       </c>
-    </row>
-    <row r="28" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B27" t="s">
+        <v>134</v>
+      </c>
+    </row>
+    <row r="28" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A28" t="s">
         <v>99</v>
       </c>
-    </row>
-    <row r="29" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B28" t="s">
+        <v>135</v>
+      </c>
+    </row>
+    <row r="29" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A29" t="s">
         <v>100</v>
       </c>
-    </row>
-    <row r="30" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B29" t="s">
+        <v>136</v>
+      </c>
+    </row>
+    <row r="30" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A30" t="s">
         <v>29</v>
       </c>
-    </row>
-    <row r="31" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B30" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="31" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A31" t="s">
         <v>30</v>
       </c>
-    </row>
-    <row r="32" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B31" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="32" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A32" t="s">
         <v>31</v>
       </c>
-    </row>
-    <row r="33" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B32" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="33" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A33" t="s">
         <v>32</v>
       </c>
-    </row>
-    <row r="34" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B33" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="34" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A34" t="s">
         <v>33</v>
       </c>
-    </row>
-    <row r="35" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B34" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="35" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A35" t="s">
         <v>34</v>
       </c>
-    </row>
-    <row r="36" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B35" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="36" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A36" t="s">
         <v>101</v>
       </c>
-    </row>
-    <row r="37" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B36" t="s">
+        <v>137</v>
+      </c>
+    </row>
+    <row r="37" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A37" t="s">
         <v>102</v>
       </c>
-    </row>
-    <row r="38" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B37" t="s">
+        <v>138</v>
+      </c>
+    </row>
+    <row r="38" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A38" t="s">
         <v>103</v>
       </c>
-    </row>
-    <row r="39" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B38" t="s">
+        <v>139</v>
+      </c>
+    </row>
+    <row r="39" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A39" t="s">
         <v>104</v>
       </c>
-    </row>
-    <row r="40" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B39" t="s">
+        <v>140</v>
+      </c>
+    </row>
+    <row r="40" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A40" t="s">
         <v>39</v>
       </c>
-    </row>
-    <row r="41" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B40" t="s">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="41" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A41" t="s">
         <v>40</v>
       </c>
-    </row>
-    <row r="42" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B41" t="s">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="42" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A42" t="s">
         <v>41</v>
       </c>
-    </row>
-    <row r="43" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B42" t="s">
+        <v>41</v>
+      </c>
+    </row>
+    <row r="43" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A43" t="s">
         <v>42</v>
       </c>
-    </row>
-    <row r="44" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B43" t="s">
+        <v>42</v>
+      </c>
+    </row>
+    <row r="44" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A44" t="s">
         <v>43</v>
       </c>
-    </row>
-    <row r="45" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B44" t="s">
+        <v>43</v>
+      </c>
+    </row>
+    <row r="45" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A45" t="s">
         <v>44</v>
       </c>
-    </row>
-    <row r="46" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B45" t="s">
+        <v>44</v>
+      </c>
+    </row>
+    <row r="46" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A46" t="s">
         <v>105</v>
       </c>
-    </row>
-    <row r="47" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B46" t="s">
+        <v>141</v>
+      </c>
+    </row>
+    <row r="47" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A47" t="s">
         <v>106</v>
       </c>
-    </row>
-    <row r="48" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B47" t="s">
+        <v>142</v>
+      </c>
+    </row>
+    <row r="48" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A48" t="s">
         <v>107</v>
       </c>
-    </row>
-    <row r="49" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B48" t="s">
+        <v>143</v>
+      </c>
+    </row>
+    <row r="49" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A49" t="s">
         <v>108</v>
       </c>
-    </row>
-    <row r="50" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B49" t="s">
+        <v>144</v>
+      </c>
+    </row>
+    <row r="50" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A50" t="s">
         <v>49</v>
       </c>
-    </row>
-    <row r="51" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B50" t="s">
+        <v>49</v>
+      </c>
+    </row>
+    <row r="51" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A51" t="s">
         <v>50</v>
       </c>
-    </row>
-    <row r="52" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B51" t="s">
+        <v>50</v>
+      </c>
+    </row>
+    <row r="52" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A52" t="s">
         <v>51</v>
       </c>
-    </row>
-    <row r="53" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B52" t="s">
+        <v>51</v>
+      </c>
+    </row>
+    <row r="53" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A53" t="s">
         <v>52</v>
       </c>
-    </row>
-    <row r="54" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B53" t="s">
+        <v>52</v>
+      </c>
+    </row>
+    <row r="54" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A54" t="s">
         <v>53</v>
       </c>
-    </row>
-    <row r="55" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B54" t="s">
+        <v>53</v>
+      </c>
+    </row>
+    <row r="55" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A55" t="s">
         <v>54</v>
       </c>
-    </row>
-    <row r="56" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B55" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="56" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A56" t="s">
         <v>109</v>
       </c>
-    </row>
-    <row r="57" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B56" t="s">
+        <v>145</v>
+      </c>
+    </row>
+    <row r="57" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A57" t="s">
         <v>110</v>
       </c>
-    </row>
-    <row r="58" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B57" t="s">
+        <v>146</v>
+      </c>
+    </row>
+    <row r="58" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A58" t="s">
         <v>111</v>
       </c>
-    </row>
-    <row r="59" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B58" t="s">
+        <v>147</v>
+      </c>
+    </row>
+    <row r="59" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A59" t="s">
         <v>112</v>
       </c>
-    </row>
-    <row r="60" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B59" t="s">
+        <v>148</v>
+      </c>
+    </row>
+    <row r="60" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A60" t="s">
         <v>59</v>
       </c>
-    </row>
-    <row r="61" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B60" t="s">
+        <v>59</v>
+      </c>
+    </row>
+    <row r="61" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A61" t="s">
         <v>60</v>
       </c>
-    </row>
-    <row r="62" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B61" t="s">
+        <v>60</v>
+      </c>
+    </row>
+    <row r="62" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A62" t="s">
         <v>61</v>
       </c>
-    </row>
-    <row r="63" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B62" t="s">
+        <v>61</v>
+      </c>
+    </row>
+    <row r="63" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A63" t="s">
         <v>62</v>
       </c>
-    </row>
-    <row r="64" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B63" t="s">
+        <v>62</v>
+      </c>
+    </row>
+    <row r="64" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A64" t="s">
         <v>63</v>
       </c>
-    </row>
-    <row r="65" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B64" t="s">
+        <v>63</v>
+      </c>
+    </row>
+    <row r="65" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A65" t="s">
         <v>64</v>
       </c>
-    </row>
-    <row r="66" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B65" t="s">
+        <v>64</v>
+      </c>
+    </row>
+    <row r="66" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A66" t="s">
         <v>113</v>
       </c>
-    </row>
-    <row r="67" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B66" t="s">
+        <v>149</v>
+      </c>
+    </row>
+    <row r="67" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A67" t="s">
         <v>114</v>
       </c>
-    </row>
-    <row r="68" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B67" t="s">
+        <v>150</v>
+      </c>
+    </row>
+    <row r="68" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A68" t="s">
         <v>115</v>
       </c>
-    </row>
-    <row r="69" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B68" t="s">
+        <v>151</v>
+      </c>
+    </row>
+    <row r="69" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A69" t="s">
         <v>116</v>
       </c>
-    </row>
-    <row r="70" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B69" t="s">
+        <v>152</v>
+      </c>
+    </row>
+    <row r="70" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A70" t="s">
         <v>69</v>
       </c>
-    </row>
-    <row r="71" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B70" t="s">
+        <v>69</v>
+      </c>
+    </row>
+    <row r="71" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A71" t="s">
         <v>70</v>
       </c>
-    </row>
-    <row r="72" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B71" t="s">
+        <v>70</v>
+      </c>
+    </row>
+    <row r="72" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A72" t="s">
         <v>71</v>
       </c>
-    </row>
-    <row r="73" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B72" t="s">
+        <v>71</v>
+      </c>
+    </row>
+    <row r="73" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A73" t="s">
         <v>72</v>
       </c>
-    </row>
-    <row r="74" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B73" t="s">
+        <v>72</v>
+      </c>
+    </row>
+    <row r="74" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A74" t="s">
         <v>73</v>
       </c>
-    </row>
-    <row r="75" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B74" t="s">
+        <v>73</v>
+      </c>
+    </row>
+    <row r="75" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A75" t="s">
         <v>74</v>
       </c>
-    </row>
-    <row r="76" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B75" t="s">
+        <v>74</v>
+      </c>
+    </row>
+    <row r="76" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A76" t="s">
         <v>117</v>
       </c>
-    </row>
-    <row r="77" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B76" t="s">
+        <v>153</v>
+      </c>
+    </row>
+    <row r="77" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A77" t="s">
         <v>118</v>
       </c>
-    </row>
-    <row r="78" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B77" t="s">
+        <v>154</v>
+      </c>
+    </row>
+    <row r="78" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A78" t="s">
         <v>119</v>
       </c>
-    </row>
-    <row r="79" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B78" t="s">
+        <v>155</v>
+      </c>
+    </row>
+    <row r="79" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A79" t="s">
         <v>120</v>
       </c>
-    </row>
-    <row r="80" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B79" t="s">
+        <v>156</v>
+      </c>
+    </row>
+    <row r="80" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A80" t="s">
         <v>79</v>
       </c>
-    </row>
-    <row r="81" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B80" t="s">
+        <v>79</v>
+      </c>
+    </row>
+    <row r="81" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A81" t="s">
         <v>80</v>
       </c>
-    </row>
-    <row r="82" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B81" t="s">
+        <v>80</v>
+      </c>
+    </row>
+    <row r="82" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A82" t="s">
         <v>81</v>
       </c>
-    </row>
-    <row r="83" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B82" t="s">
+        <v>81</v>
+      </c>
+    </row>
+    <row r="83" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A83" t="s">
         <v>82</v>
       </c>
-    </row>
-    <row r="84" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B83" t="s">
+        <v>82</v>
+      </c>
+    </row>
+    <row r="84" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A84" t="s">
         <v>83</v>
       </c>
-    </row>
-    <row r="85" spans="1:1" x14ac:dyDescent="0.3">
+      <c r="B84" t="s">
+        <v>83</v>
+      </c>
+    </row>
+    <row r="85" spans="1:2" x14ac:dyDescent="0.3">
       <c r="A85" t="s">
+        <v>84</v>
+      </c>
+      <c r="B85" t="s">
         <v>84</v>
       </c>
     </row>
